--- a/accuracies-new.xlsx
+++ b/accuracies-new.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simbe\Desktop\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ABDD49-3FBA-4787-BC14-B5C51965BEDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1051,40 +1057,22 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="140"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="140"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1095,6 +1083,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="115"/>
@@ -1102,19 +1096,103 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="115"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="115"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="115"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="115"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="115"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1135,91 +1213,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="115"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="115"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,6 +1237,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1279,7 +1288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1312,9 +1321,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1347,6 +1373,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1522,149 +1565,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="V1" s="95" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="V1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="102"/>
+      <c r="B2" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="75" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="102" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="102" t="s">
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="104"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="80"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="110" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="110" t="s">
+      <c r="E3" s="111"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="105" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="59" t="s">
+      <c r="Y3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="105" t="s">
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="59" t="s">
+      <c r="AB3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="107"/>
+      <c r="AC3" s="84"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="111"/>
+    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="104"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1674,7 +1717,7 @@
       <c r="F4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="111"/>
+      <c r="G4" s="66"/>
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1684,26 +1727,26 @@
       <c r="J4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="106"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="82"/>
       <c r="Y4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="106"/>
+      <c r="AA4" s="82"/>
       <c r="AB4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1711,154 +1754,154 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="62">
         <v>1.49</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="85">
         <v>100</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="68">
+      <c r="F5" s="109"/>
+      <c r="G5" s="62">
         <v>8.3000000000000007</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="85">
         <v>100</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="58"/>
-      <c r="V5" s="90" t="s">
+      <c r="J5" s="109"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="V5" s="92" t="s">
         <v>6</v>
       </c>
       <c r="W5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="91">
+      <c r="X5" s="94">
         <v>1.49</v>
       </c>
-      <c r="Y5" s="62">
+      <c r="Y5" s="85">
         <v>100</v>
       </c>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="91">
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="94">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB5" s="62">
+      <c r="AB5" s="85">
         <v>100</v>
       </c>
-      <c r="AC5" s="93"/>
+      <c r="AC5" s="86"/>
     </row>
-    <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="69"/>
+    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="60"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="87">
         <v>100</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="69"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="87">
         <v>100</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="V6" s="59"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="V6" s="83"/>
       <c r="W6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="91"/>
-      <c r="Y6" s="64">
+      <c r="X6" s="94"/>
+      <c r="Y6" s="87">
         <v>100</v>
       </c>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="64">
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="87">
         <v>100</v>
       </c>
-      <c r="AC6" s="94"/>
+      <c r="AC6" s="88"/>
     </row>
-    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="70"/>
+    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="60"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="87">
         <v>100</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="70"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="87">
         <v>100</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="V7" s="59"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="V7" s="83"/>
       <c r="W7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="64">
+      <c r="X7" s="95"/>
+      <c r="Y7" s="87">
         <v>100</v>
       </c>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="64">
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="87">
         <v>100</v>
       </c>
-      <c r="AC7" s="94"/>
+      <c r="AC7" s="88"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
+    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
       <c r="B8" s="45" t="s">
         <v>19</v>
       </c>
@@ -1868,57 +1911,57 @@
       <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="69">
         <v>82.94</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="30">
         <v>9.5</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="69">
         <v>94.25</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="V8" s="85"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="V8" s="93"/>
       <c r="W8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="X8" s="2">
         <v>2.1</v>
       </c>
-      <c r="Y8" s="66">
+      <c r="Y8" s="69">
         <v>82.94</v>
       </c>
-      <c r="Z8" s="89"/>
+      <c r="Z8" s="70"/>
       <c r="AA8" s="2">
         <v>9.5</v>
       </c>
-      <c r="AB8" s="66">
+      <c r="AB8" s="69">
         <v>94.25</v>
       </c>
-      <c r="AC8" s="89"/>
+      <c r="AC8" s="70"/>
     </row>
-    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="62">
         <v>3.7</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -1930,7 +1973,7 @@
       <c r="F9" s="37">
         <v>4.5</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="62">
         <v>12.3</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -1942,23 +1985,23 @@
       <c r="J9" s="37">
         <v>12.7</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="V9" s="90" t="s">
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="V9" s="92" t="s">
         <v>11</v>
       </c>
       <c r="W9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="91">
+      <c r="X9" s="94">
         <v>3.7</v>
       </c>
       <c r="Y9" s="3">
@@ -1967,7 +2010,7 @@
       <c r="Z9" s="4">
         <v>4.5</v>
       </c>
-      <c r="AA9" s="91">
+      <c r="AA9" s="94">
         <v>12.3</v>
       </c>
       <c r="AB9" s="5">
@@ -1977,10 +2020,10 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="69"/>
+    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="60"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="19" t="s">
         <v>8</v>
       </c>
@@ -1990,7 +2033,7 @@
       <c r="F10" s="38">
         <v>7.3</v>
       </c>
-      <c r="G10" s="69"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2000,28 +2043,28 @@
       <c r="J10" s="38">
         <v>12.5</v>
       </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="V10" s="59"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="91"/>
+      <c r="X10" s="94"/>
       <c r="Y10" s="6">
         <v>100</v>
       </c>
       <c r="Z10" s="6">
         <v>7.3</v>
       </c>
-      <c r="AA10" s="91"/>
+      <c r="AA10" s="94"/>
       <c r="AB10" s="6">
         <v>100</v>
       </c>
@@ -2029,10 +2072,10 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="70"/>
+    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="60"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="16" t="s">
         <v>9</v>
       </c>
@@ -2042,7 +2085,7 @@
       <c r="F11" s="39">
         <v>5.4</v>
       </c>
-      <c r="G11" s="70"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="16" t="s">
         <v>9</v>
       </c>
@@ -2052,28 +2095,28 @@
       <c r="J11" s="39">
         <v>12.9</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="V11" s="59"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="92"/>
+      <c r="X11" s="95"/>
       <c r="Y11" s="6">
         <v>100</v>
       </c>
       <c r="Z11" s="7">
         <v>5.4</v>
       </c>
-      <c r="AA11" s="92"/>
+      <c r="AA11" s="95"/>
       <c r="AB11" s="6">
         <v>100</v>
       </c>
@@ -2081,8 +2124,8 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
+    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
       <c r="B12" s="48" t="s">
         <v>19</v>
       </c>
@@ -2110,17 +2153,17 @@
       <c r="J12" s="40">
         <v>72.599999999999994</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="V12" s="85"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="V12" s="93"/>
       <c r="W12" s="17" t="s">
         <v>10</v>
       </c>
@@ -2143,8 +2186,8 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -2156,33 +2199,33 @@
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="99" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="V13" s="90" t="s">
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="V13" s="92" t="s">
         <v>14</v>
       </c>
       <c r="W13" s="13" t="s">
@@ -2191,22 +2234,22 @@
       <c r="X13" s="21">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y13" s="71" t="s">
+      <c r="Y13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="Z13" s="71" t="s">
+      <c r="Z13" s="67" t="s">
         <v>12</v>
       </c>
       <c r="AA13" s="9"/>
-      <c r="AB13" s="86" t="s">
+      <c r="AB13" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AC13" s="86" t="s">
+      <c r="AC13" s="89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
       <c r="B14" s="45" t="s">
         <v>19</v>
       </c>
@@ -2216,39 +2259,39 @@
       <c r="D14" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="74"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="35"/>
       <c r="H14" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="V14" s="85"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="V14" s="93"/>
       <c r="W14" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X14" s="22">
         <v>19.3</v>
       </c>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
     </row>
-    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="46" t="s">
@@ -2260,33 +2303,33 @@
       <c r="D15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="67" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="73" t="s">
+      <c r="J15" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="V15" s="59" t="s">
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="V15" s="83" t="s">
         <v>15</v>
       </c>
       <c r="W15" s="19" t="s">
@@ -2295,22 +2338,22 @@
       <c r="X15" s="23">
         <v>67.599999999999994</v>
       </c>
-      <c r="Y15" s="86" t="s">
+      <c r="Y15" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="Z15" s="86" t="s">
+      <c r="Z15" s="89" t="s">
         <v>13</v>
       </c>
       <c r="AA15" s="11"/>
-      <c r="AB15" s="86" t="s">
+      <c r="AB15" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="AC15" s="86" t="s">
+      <c r="AC15" s="89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
       <c r="B16" s="48" t="s">
         <v>19</v>
       </c>
@@ -2320,39 +2363,39 @@
       <c r="D16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="33"/>
       <c r="H16" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="V16" s="85"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="V16" s="93"/>
       <c r="W16" s="17" t="s">
         <v>10</v>
       </c>
       <c r="X16" s="24">
         <v>87.4</v>
       </c>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
     </row>
-    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="46" t="s">
@@ -2368,23 +2411,27 @@
       <c r="F17" s="36">
         <v>4.2</v>
       </c>
-      <c r="G17" s="31"/>
+      <c r="G17" s="31">
+        <v>17.399999999999999</v>
+      </c>
       <c r="H17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="25"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="V17" s="59" t="s">
+      <c r="J17" s="112">
+        <v>17.2</v>
+      </c>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="V17" s="83" t="s">
         <v>16</v>
       </c>
       <c r="W17" s="19" t="s">
@@ -2401,8 +2448,8 @@
       <c r="AB17" s="25"/>
       <c r="AC17" s="25"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
+    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="61"/>
       <c r="B18" s="48" t="s">
         <v>19</v>
       </c>
@@ -2421,18 +2468,18 @@
         <v>10</v>
       </c>
       <c r="I18" s="54"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="V18" s="88"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="V18" s="91"/>
       <c r="W18" s="20" t="s">
         <v>10</v>
       </c>
@@ -2449,31 +2496,24 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="V2:W4"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="AC15:AC16"/>
     <mergeCell ref="V17:V18"/>
@@ -2490,12 +2530,32 @@
     <mergeCell ref="X5:X7"/>
     <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="V2:W4"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="F15:F16"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A2:A4"/>
@@ -2503,21 +2563,8 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2528,12 +2575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2544,12 +2591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/accuracies-new.xlsx
+++ b/accuracies-new.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simbe\Desktop\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ABDD49-3FBA-4787-BC14-B5C51965BEDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +256,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -890,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,9 +1037,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1057,12 +1061,21 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="140"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,6 +1103,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="115"/>
     </xf>
@@ -1144,9 +1193,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1177,55 +1223,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="115"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="115"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1288,7 +1301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1321,26 +1334,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1373,23 +1369,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1565,188 +1544,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:29" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="V1" s="71" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="V1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
-      <c r="B2" s="105" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="59" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="78" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="78" t="s">
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="80"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="94"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="65" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="65" t="s">
+      <c r="E3" s="112"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="81" t="s">
+      <c r="I3" s="112"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="83" t="s">
+      <c r="Y3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="81" t="s">
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="83" t="s">
+      <c r="AB3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="84"/>
+      <c r="AC3" s="98"/>
     </row>
-    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="104"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="66"/>
+    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="75"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="68"/>
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="82"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="96"/>
       <c r="Y4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="82"/>
+      <c r="AA4" s="96"/>
       <c r="AB4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1754,154 +1733,154 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="64">
         <v>1.49</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="79">
         <v>100</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="62">
+      <c r="F5" s="80"/>
+      <c r="G5" s="64">
         <v>8.3000000000000007</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="79">
         <v>100</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="V5" s="92" t="s">
+      <c r="J5" s="80"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="V5" s="105" t="s">
         <v>6</v>
       </c>
       <c r="W5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="94">
+      <c r="X5" s="107">
         <v>1.49</v>
       </c>
-      <c r="Y5" s="85">
+      <c r="Y5" s="79">
         <v>100</v>
       </c>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="94">
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="107">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB5" s="85">
+      <c r="AB5" s="79">
         <v>100</v>
       </c>
-      <c r="AC5" s="86"/>
+      <c r="AC5" s="99"/>
     </row>
-    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="63"/>
+    <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="100">
         <v>100</v>
       </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="63"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="100">
         <v>100</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="V6" s="83"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="V6" s="97"/>
       <c r="W6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="87">
+      <c r="X6" s="107"/>
+      <c r="Y6" s="100">
         <v>100</v>
       </c>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="87">
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="100">
         <v>100</v>
       </c>
-      <c r="AC6" s="88"/>
+      <c r="AC6" s="101"/>
     </row>
-    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="64"/>
+    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="100">
         <v>100</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="100">
         <v>100</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="V7" s="83"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="87">
+      <c r="X7" s="108"/>
+      <c r="Y7" s="100">
         <v>100</v>
       </c>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="87">
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="100">
         <v>100</v>
       </c>
-      <c r="AC7" s="88"/>
+      <c r="AC7" s="101"/>
     </row>
-    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
       <c r="B8" s="45" t="s">
         <v>19</v>
       </c>
@@ -1911,57 +1890,57 @@
       <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="69">
-        <v>82.94</v>
-      </c>
-      <c r="F8" s="108"/>
+      <c r="E8" s="113">
+        <v>39.5</v>
+      </c>
+      <c r="F8" s="114"/>
       <c r="G8" s="30">
         <v>9.5</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="69">
-        <v>94.25</v>
-      </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="V8" s="93"/>
+      <c r="I8" s="113">
+        <v>77.2</v>
+      </c>
+      <c r="J8" s="114"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="X8" s="2">
         <v>2.1</v>
       </c>
-      <c r="Y8" s="69">
+      <c r="Y8" s="83">
         <v>82.94</v>
       </c>
-      <c r="Z8" s="70"/>
+      <c r="Z8" s="84"/>
       <c r="AA8" s="2">
         <v>9.5</v>
       </c>
-      <c r="AB8" s="69">
+      <c r="AB8" s="83">
         <v>94.25</v>
       </c>
-      <c r="AC8" s="70"/>
+      <c r="AC8" s="84"/>
     </row>
-    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="64">
         <v>3.7</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -1973,7 +1952,7 @@
       <c r="F9" s="37">
         <v>4.5</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="64">
         <v>12.3</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -1985,23 +1964,23 @@
       <c r="J9" s="37">
         <v>12.7</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="V9" s="92" t="s">
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="V9" s="105" t="s">
         <v>11</v>
       </c>
       <c r="W9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="94">
+      <c r="X9" s="107">
         <v>3.7</v>
       </c>
       <c r="Y9" s="3">
@@ -2010,7 +1989,7 @@
       <c r="Z9" s="4">
         <v>4.5</v>
       </c>
-      <c r="AA9" s="94">
+      <c r="AA9" s="107">
         <v>12.3</v>
       </c>
       <c r="AB9" s="5">
@@ -2020,10 +1999,10 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="63"/>
+    <row r="10" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="62"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2033,7 +2012,7 @@
       <c r="F10" s="38">
         <v>7.3</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="19" t="s">
         <v>8</v>
       </c>
@@ -2043,28 +2022,28 @@
       <c r="J10" s="38">
         <v>12.5</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="V10" s="83"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="94"/>
+      <c r="X10" s="107"/>
       <c r="Y10" s="6">
         <v>100</v>
       </c>
       <c r="Z10" s="6">
         <v>7.3</v>
       </c>
-      <c r="AA10" s="94"/>
+      <c r="AA10" s="107"/>
       <c r="AB10" s="6">
         <v>100</v>
       </c>
@@ -2072,10 +2051,10 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="64"/>
+    <row r="11" spans="1:29" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="16" t="s">
         <v>9</v>
       </c>
@@ -2085,7 +2064,7 @@
       <c r="F11" s="39">
         <v>5.4</v>
       </c>
-      <c r="G11" s="64"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="16" t="s">
         <v>9</v>
       </c>
@@ -2095,28 +2074,28 @@
       <c r="J11" s="39">
         <v>12.9</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="V11" s="83"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="95"/>
+      <c r="X11" s="108"/>
       <c r="Y11" s="6">
         <v>100</v>
       </c>
       <c r="Z11" s="7">
         <v>5.4</v>
       </c>
-      <c r="AA11" s="95"/>
+      <c r="AA11" s="108"/>
       <c r="AB11" s="6">
         <v>100</v>
       </c>
@@ -2124,22 +2103,20 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="48" t="s">
+    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
+      <c r="B12" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="30">
-        <v>4.1900000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
-        <v>81.400000000000006</v>
-      </c>
+      <c r="E12" s="58"/>
       <c r="F12" s="40">
-        <v>53.4</v>
+        <v>8.6</v>
       </c>
       <c r="G12" s="30">
         <v>12</v>
@@ -2147,23 +2124,21 @@
       <c r="H12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="47">
-        <v>89.7</v>
-      </c>
+      <c r="I12" s="59"/>
       <c r="J12" s="40">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="V12" s="93"/>
+        <v>29.8</v>
+      </c>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="V12" s="106"/>
       <c r="W12" s="17" t="s">
         <v>10</v>
       </c>
@@ -2186,11 +2161,11 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="41">
@@ -2199,33 +2174,33 @@
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="109" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="99" t="s">
+      <c r="J13" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="V13" s="92" t="s">
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="V13" s="105" t="s">
         <v>14</v>
       </c>
       <c r="W13" s="13" t="s">
@@ -2234,64 +2209,64 @@
       <c r="X13" s="21">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y13" s="67" t="s">
+      <c r="Y13" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="Z13" s="67" t="s">
+      <c r="Z13" s="81" t="s">
         <v>12</v>
       </c>
       <c r="AA13" s="9"/>
-      <c r="AB13" s="89" t="s">
+      <c r="AB13" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="AC13" s="89" t="s">
+      <c r="AC13" s="102" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="63"/>
       <c r="B14" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="42">
         <v>19.3</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="100"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="V14" s="93"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="V14" s="106"/>
       <c r="W14" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X14" s="22">
         <v>19.3</v>
       </c>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
     </row>
-    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="46" t="s">
@@ -2303,33 +2278,33 @@
       <c r="D15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="81" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="99" t="s">
+      <c r="J15" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="V15" s="83" t="s">
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="V15" s="97" t="s">
         <v>15</v>
       </c>
       <c r="W15" s="19" t="s">
@@ -2338,64 +2313,64 @@
       <c r="X15" s="23">
         <v>67.599999999999994</v>
       </c>
-      <c r="Y15" s="89" t="s">
+      <c r="Y15" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="Z15" s="89" t="s">
+      <c r="Z15" s="102" t="s">
         <v>13</v>
       </c>
       <c r="AA15" s="11"/>
-      <c r="AB15" s="89" t="s">
+      <c r="AB15" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="AC15" s="89" t="s">
+      <c r="AC15" s="102" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="61"/>
-      <c r="B16" s="48" t="s">
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
+      <c r="B16" s="47" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="44">
         <v>87.4</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="33"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="68"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="V16" s="93"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="17" t="s">
         <v>10</v>
       </c>
       <c r="X16" s="24">
         <v>87.4</v>
       </c>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
     </row>
-    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59" t="s">
+    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="46" t="s">
@@ -2418,20 +2393,20 @@
         <v>7</v>
       </c>
       <c r="I17" s="25"/>
-      <c r="J17" s="112">
+      <c r="J17" s="56">
         <v>17.2</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="V17" s="83" t="s">
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="V17" s="97" t="s">
         <v>16</v>
       </c>
       <c r="W17" s="19" t="s">
@@ -2448,38 +2423,42 @@
       <c r="AB17" s="25"/>
       <c r="AC17" s="25"/>
     </row>
-    <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
-      <c r="B18" s="48" t="s">
+    <row r="18" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63"/>
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="52">
         <v>2.7</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55">
-        <v>31.1</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="50" t="s">
+      <c r="E18" s="53"/>
+      <c r="F18" s="54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G18" s="52">
+        <v>16.7</v>
+      </c>
+      <c r="H18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="V18" s="91"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="57">
+        <v>26.5</v>
+      </c>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="V18" s="104"/>
       <c r="W18" s="20" t="s">
         <v>10</v>
       </c>
@@ -2575,12 +2554,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2591,12 +2570,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/accuracies-new.xlsx
+++ b/accuracies-new.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simbe\Desktop\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F278439-5B32-4324-A7AE-7B19C00CED1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1076,25 +1082,136 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="115"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="115"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="115"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="115"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="115"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="115"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1106,9 +1223,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,114 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="115"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="115"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="115"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="115"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="115"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="115"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,7 +1307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,9 +1340,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1369,6 +1392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1544,38 +1584,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
@@ -1586,34 +1626,34 @@
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
-      <c r="V1" s="85" t="s">
+      <c r="V1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="76" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="109"/>
+      <c r="B2" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="61" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="69"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
       <c r="M2" s="55"/>
@@ -1624,38 +1664,38 @@
       <c r="R2" s="55"/>
       <c r="S2" s="55"/>
       <c r="T2" s="55"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="92" t="s">
+      <c r="V2" s="87"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="92" t="s">
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="95"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="67" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="110"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="67" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="70"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
@@ -1666,27 +1706,27 @@
       <c r="R3" s="55"/>
       <c r="S3" s="55"/>
       <c r="T3" s="55"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="95" t="s">
+      <c r="V3" s="89"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="97" t="s">
+      <c r="Y3" s="67" t="s">
         <v>4</v>
       </c>
       <c r="Z3" s="98"/>
-      <c r="AA3" s="95" t="s">
+      <c r="AA3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="97" t="s">
+      <c r="AB3" s="67" t="s">
         <v>4</v>
       </c>
       <c r="AC3" s="98"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="68"/>
+    <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="111"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1696,7 +1736,7 @@
       <c r="F4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="68"/>
+      <c r="G4" s="105"/>
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1716,16 +1756,16 @@
       <c r="R4" s="55"/>
       <c r="S4" s="55"/>
       <c r="T4" s="55"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="96"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="97"/>
       <c r="Y4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="96"/>
+      <c r="AA4" s="97"/>
       <c r="AB4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1733,11 +1773,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="106" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="64">
@@ -1746,20 +1786,20 @@
       <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="70">
         <v>100</v>
       </c>
-      <c r="F5" s="80"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="64">
         <v>8.3000000000000007</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="70">
         <v>100</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="55"/>
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
@@ -1770,46 +1810,46 @@
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
       <c r="T5" s="55"/>
-      <c r="V5" s="105" t="s">
+      <c r="V5" s="82" t="s">
         <v>6</v>
       </c>
       <c r="W5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="107">
+      <c r="X5" s="83">
         <v>1.49</v>
       </c>
-      <c r="Y5" s="79">
+      <c r="Y5" s="70">
         <v>100</v>
       </c>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="107">
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="83">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AB5" s="79">
+      <c r="AB5" s="70">
         <v>100</v>
       </c>
-      <c r="AC5" s="99"/>
+      <c r="AC5" s="85"/>
     </row>
-    <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="70"/>
+    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="103"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="65"/>
       <c r="D6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="60">
         <v>100</v>
       </c>
-      <c r="F6" s="111"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="65"/>
       <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="60">
         <v>100</v>
       </c>
-      <c r="J6" s="111"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="55"/>
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
@@ -1820,40 +1860,40 @@
       <c r="R6" s="55"/>
       <c r="S6" s="55"/>
       <c r="T6" s="55"/>
-      <c r="V6" s="97"/>
+      <c r="V6" s="67"/>
       <c r="W6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="100">
+      <c r="X6" s="83"/>
+      <c r="Y6" s="60">
         <v>100</v>
       </c>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="100">
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="60">
         <v>100</v>
       </c>
-      <c r="AC6" s="101"/>
+      <c r="AC6" s="99"/>
     </row>
-    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="71"/>
+    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="103"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="66"/>
       <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="60">
         <v>100</v>
       </c>
-      <c r="F7" s="111"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="66"/>
       <c r="H7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="60">
         <v>100</v>
       </c>
-      <c r="J7" s="111"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="55"/>
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
@@ -1864,23 +1904,23 @@
       <c r="R7" s="55"/>
       <c r="S7" s="55"/>
       <c r="T7" s="55"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="67"/>
       <c r="W7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="100">
+      <c r="X7" s="84"/>
+      <c r="Y7" s="60">
         <v>100</v>
       </c>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="100">
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="60">
         <v>100</v>
       </c>
-      <c r="AC7" s="101"/>
+      <c r="AC7" s="99"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+    <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="101"/>
       <c r="B8" s="45" t="s">
         <v>19</v>
       </c>
@@ -1890,20 +1930,20 @@
       <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="62">
         <v>39.5</v>
       </c>
-      <c r="F8" s="114"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="30">
         <v>9.5</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="113">
+      <c r="I8" s="62">
         <v>77.2</v>
       </c>
-      <c r="J8" s="114"/>
+      <c r="J8" s="63"/>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
@@ -1914,30 +1954,30 @@
       <c r="R8" s="55"/>
       <c r="S8" s="55"/>
       <c r="T8" s="55"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="74"/>
       <c r="W8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="X8" s="2">
         <v>2.1</v>
       </c>
-      <c r="Y8" s="83">
+      <c r="Y8" s="80">
         <v>82.94</v>
       </c>
-      <c r="Z8" s="84"/>
+      <c r="Z8" s="81"/>
       <c r="AA8" s="2">
         <v>9.5</v>
       </c>
-      <c r="AB8" s="83">
+      <c r="AB8" s="80">
         <v>94.25</v>
       </c>
-      <c r="AC8" s="84"/>
+      <c r="AC8" s="81"/>
     </row>
-    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="106" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="64">
@@ -1974,13 +2014,13 @@
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
       <c r="T9" s="55"/>
-      <c r="V9" s="105" t="s">
+      <c r="V9" s="82" t="s">
         <v>11</v>
       </c>
       <c r="W9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="107">
+      <c r="X9" s="83">
         <v>3.7</v>
       </c>
       <c r="Y9" s="3">
@@ -1989,7 +2029,7 @@
       <c r="Z9" s="4">
         <v>4.5</v>
       </c>
-      <c r="AA9" s="107">
+      <c r="AA9" s="83">
         <v>12.3</v>
       </c>
       <c r="AB9" s="5">
@@ -1999,9 +2039,9 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="70"/>
+    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="103"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="65"/>
       <c r="D10" s="19" t="s">
         <v>8</v>
@@ -2032,18 +2072,18 @@
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
       <c r="T10" s="55"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="67"/>
       <c r="W10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="107"/>
+      <c r="X10" s="83"/>
       <c r="Y10" s="6">
         <v>100</v>
       </c>
       <c r="Z10" s="6">
         <v>7.3</v>
       </c>
-      <c r="AA10" s="107"/>
+      <c r="AA10" s="83"/>
       <c r="AB10" s="6">
         <v>100</v>
       </c>
@@ -2051,9 +2091,9 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="71"/>
+    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="103"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="66"/>
       <c r="D11" s="16" t="s">
         <v>9</v>
@@ -2084,18 +2124,18 @@
       <c r="R11" s="55"/>
       <c r="S11" s="55"/>
       <c r="T11" s="55"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="67"/>
       <c r="W11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="X11" s="108"/>
+      <c r="X11" s="84"/>
       <c r="Y11" s="6">
         <v>100</v>
       </c>
       <c r="Z11" s="7">
         <v>5.4</v>
       </c>
-      <c r="AA11" s="108"/>
+      <c r="AA11" s="84"/>
       <c r="AB11" s="6">
         <v>100</v>
       </c>
@@ -2103,8 +2143,8 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
+    <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="101"/>
       <c r="B12" s="47" t="s">
         <v>19</v>
       </c>
@@ -2138,7 +2178,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
       <c r="T12" s="55"/>
-      <c r="V12" s="106"/>
+      <c r="V12" s="74"/>
       <c r="W12" s="17" t="s">
         <v>10</v>
       </c>
@@ -2161,8 +2201,8 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="100" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="48" t="s">
@@ -2174,20 +2214,22 @@
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="34">
+        <v>54.6</v>
+      </c>
       <c r="H13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="109" t="s">
+      <c r="J13" s="72" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="55"/>
@@ -2200,7 +2242,7 @@
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
       <c r="T13" s="55"/>
-      <c r="V13" s="105" t="s">
+      <c r="V13" s="82" t="s">
         <v>14</v>
       </c>
       <c r="W13" s="13" t="s">
@@ -2209,22 +2251,22 @@
       <c r="X13" s="21">
         <v>18.399999999999999</v>
       </c>
-      <c r="Y13" s="81" t="s">
+      <c r="Y13" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="Z13" s="81" t="s">
+      <c r="Z13" s="77" t="s">
         <v>12</v>
       </c>
       <c r="AA13" s="9"/>
-      <c r="AB13" s="102" t="s">
+      <c r="AB13" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AC13" s="102" t="s">
+      <c r="AC13" s="75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="101"/>
       <c r="B14" s="45" t="s">
         <v>19</v>
       </c>
@@ -2234,14 +2276,16 @@
       <c r="D14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="35"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="35">
+        <v>55.3</v>
+      </c>
       <c r="H14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="110"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
@@ -2252,21 +2296,21 @@
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
       <c r="T14" s="55"/>
-      <c r="V14" s="106"/>
+      <c r="V14" s="74"/>
       <c r="W14" s="18" t="s">
         <v>10</v>
       </c>
       <c r="X14" s="22">
         <v>19.3</v>
       </c>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
     </row>
-    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="100" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="46" t="s">
@@ -2278,20 +2322,22 @@
       <c r="D15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="32"/>
+      <c r="G15" s="32">
+        <v>71.5</v>
+      </c>
       <c r="H15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="81" t="s">
+      <c r="I15" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="109" t="s">
+      <c r="J15" s="72" t="s">
         <v>13</v>
       </c>
       <c r="K15" s="55"/>
@@ -2304,7 +2350,7 @@
       <c r="R15" s="55"/>
       <c r="S15" s="55"/>
       <c r="T15" s="55"/>
-      <c r="V15" s="97" t="s">
+      <c r="V15" s="67" t="s">
         <v>15</v>
       </c>
       <c r="W15" s="19" t="s">
@@ -2313,22 +2359,22 @@
       <c r="X15" s="23">
         <v>67.599999999999994</v>
       </c>
-      <c r="Y15" s="102" t="s">
+      <c r="Y15" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="Z15" s="102" t="s">
+      <c r="Z15" s="75" t="s">
         <v>13</v>
       </c>
       <c r="AA15" s="11"/>
-      <c r="AB15" s="102" t="s">
+      <c r="AB15" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AC15" s="102" t="s">
+      <c r="AC15" s="75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
+    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="101"/>
       <c r="B16" s="47" t="s">
         <v>19</v>
       </c>
@@ -2338,14 +2384,16 @@
       <c r="D16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="33"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="33">
+        <v>90.3</v>
+      </c>
       <c r="H16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="110"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
@@ -2356,21 +2404,21 @@
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
       <c r="T16" s="55"/>
-      <c r="V16" s="106"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="17" t="s">
         <v>10</v>
       </c>
       <c r="X16" s="24">
         <v>87.4</v>
       </c>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
     </row>
-    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="46" t="s">
@@ -2406,7 +2454,7 @@
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
-      <c r="V17" s="97" t="s">
+      <c r="V17" s="67" t="s">
         <v>16</v>
       </c>
       <c r="W17" s="19" t="s">
@@ -2423,8 +2471,8 @@
       <c r="AB17" s="25"/>
       <c r="AC17" s="25"/>
     </row>
-    <row r="18" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
+    <row r="18" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="101"/>
       <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
@@ -2458,7 +2506,7 @@
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
       <c r="T18" s="55"/>
-      <c r="V18" s="104"/>
+      <c r="V18" s="79"/>
       <c r="W18" s="20" t="s">
         <v>10</v>
       </c>
@@ -2475,24 +2523,41 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="V2:W4"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="AC15:AC16"/>
     <mergeCell ref="V17:V18"/>
@@ -2509,41 +2574,24 @@
     <mergeCell ref="X5:X7"/>
     <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="V2:W4"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2554,12 +2602,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2570,12 +2618,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
